--- a/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR MARTAPURA 2017.xlsx
+++ b/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR MARTAPURA 2017.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\MK KDD Data Mining\Data\Studi Kasus 23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Data-Mining\Hands On 3 Studi Kasus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95893B69-F558-41D2-9FAF-12E31AF8E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407E613-F0C1-441D-BCE0-144826505AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="22932" yWindow="-3720" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MARET " sheetId="1" r:id="rId1"/>
+    <sheet name="MARET" sheetId="1" r:id="rId1"/>
     <sheet name="APRIL" sheetId="7" r:id="rId2"/>
     <sheet name="MEI" sheetId="8" r:id="rId3"/>
     <sheet name="JUNI" sheetId="9" r:id="rId4"/>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -556,11 +556,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,9 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -659,24 +667,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -687,21 +677,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,16 +706,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,14 +751,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,26 +1049,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1076,22 +1081,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1104,7 +1109,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1120,7 +1125,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -1136,7 +1141,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -1152,7 +1157,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1165,49 +1170,49 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,14 +1222,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -1236,21 +1241,21 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f>AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -1262,21 +1267,21 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f>AVERAGE(E12:J12)</f>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -1288,21 +1293,21 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f>AVERAGE(E13:J13)</f>
         <v>8000</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1322,12 +1327,12 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="22"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -1347,15 +1352,15 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f>AVERAGE(E15:J15)</f>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1369,21 +1374,21 @@
       <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>25000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>24000</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f>AVERAGE(E16:J16)</f>
         <v>24750</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1403,15 +1408,15 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="22">
         <f>AVERAGE(E17:J17)</f>
         <v>12625</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1421,14 +1426,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -1440,21 +1445,21 @@
       <c r="F19" s="20">
         <v>53000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>38000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>38000</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>45500</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -1466,21 +1471,21 @@
       <c r="F20" s="21">
         <v>34000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>36000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>36000</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>35000</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -1490,15 +1495,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -1510,22 +1515,22 @@
       <c r="F22" s="19">
         <v>50000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>50000</v>
       </c>
       <c r="H22" s="20">
         <v>50000</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>49500</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -1537,22 +1542,22 @@
       <c r="F23" s="19">
         <v>60000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>60000</v>
       </c>
       <c r="H23" s="20">
         <v>60000</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>58750</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -1564,21 +1569,21 @@
       <c r="F24" s="24">
         <v>110000</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="31">
         <v>120000</v>
       </c>
       <c r="H24" s="23">
         <v>120000</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="23">
         <f>AVERAGE(E24:J24)</f>
         <v>115000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1588,14 +1593,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -1607,21 +1612,21 @@
       <c r="F26" s="25">
         <v>125000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>127500</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -1633,21 +1638,21 @@
       <c r="F27" s="21">
         <v>28000</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>28000</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>28000</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>28000</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -1657,14 +1662,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -1676,21 +1681,21 @@
       <c r="F29" s="19">
         <v>22000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>22000</v>
       </c>
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -1702,21 +1707,21 @@
       <c r="F30" s="19">
         <v>2400</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2400</v>
       </c>
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2425</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1736,15 +1741,15 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -1764,16 +1769,16 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1785,7 +1790,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1797,7 +1802,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1809,7 +1814,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1821,7 +1826,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1833,7 +1838,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1845,7 +1850,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1857,7 +1862,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1869,7 +1874,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1880,7 +1885,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1892,7 +1897,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1904,7 +1909,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1916,7 +1921,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1928,7 +1933,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1940,7 +1945,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1952,7 +1957,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1964,7 +1969,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1976,14 +1981,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I10:J10"/>
@@ -1992,6 +1997,7 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I26:J26"/>
@@ -1999,22 +2005,21 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E8:J8"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2022,26 +2027,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2054,22 +2059,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2082,7 +2087,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -2098,7 +2103,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -2114,7 +2119,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -2130,7 +2135,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2143,49 +2148,49 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="62"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,14 +2200,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -2214,21 +2219,21 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -2240,21 +2245,21 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -2266,21 +2271,21 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2300,15 +2305,15 @@
       <c r="H14" s="22">
         <v>9000</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>9666.6666666666661</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2328,15 +2333,15 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -2350,21 +2355,21 @@
       <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>24000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>28000</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26250</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2384,15 +2389,15 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2402,14 +2407,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -2421,21 +2426,21 @@
       <c r="F19" s="20">
         <v>28000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>28000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>35000</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>30750</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -2447,21 +2452,21 @@
       <c r="F20" s="21">
         <v>35000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>35000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>40000</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>37000</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2471,15 +2476,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -2491,22 +2496,22 @@
       <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>35000</v>
       </c>
       <c r="H22" s="20">
         <v>32000</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>36750</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -2518,22 +2523,22 @@
       <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>35000</v>
       </c>
       <c r="H23" s="20">
         <v>32000</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>39250</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -2545,21 +2550,21 @@
       <c r="F24" s="19">
         <v>70000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>70000</v>
       </c>
       <c r="H24" s="21">
         <v>48000</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>67000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -2569,14 +2574,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -2588,21 +2593,21 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -2614,21 +2619,21 @@
       <c r="F27" s="21">
         <v>32000</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>21000</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>21000</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>26500</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -2638,14 +2643,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -2657,21 +2662,21 @@
       <c r="F29" s="19">
         <v>20000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>19000</v>
       </c>
       <c r="H29" s="20">
         <v>20000</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>19750</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -2683,21 +2688,21 @@
       <c r="F30" s="19">
         <v>2500</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2500</v>
       </c>
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2500</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -2717,15 +2722,15 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -2745,16 +2750,16 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2766,7 +2771,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2778,7 +2783,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2790,7 +2795,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2802,7 +2807,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2814,7 +2819,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2826,7 +2831,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2838,7 +2843,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2850,7 +2855,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2861,7 +2866,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2873,7 +2878,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2885,7 +2890,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2897,7 +2902,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2909,7 +2914,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2921,7 +2926,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2933,7 +2938,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2945,7 +2950,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2957,14 +2962,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I28:J28"/>
@@ -2972,11 +2977,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -2984,11 +2984,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B8:B9"/>
@@ -2996,6 +2996,11 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3003,26 +3008,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3035,22 +3040,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3063,7 +3068,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -3079,7 +3084,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -3095,7 +3100,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -3111,7 +3116,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3124,51 +3129,51 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3178,14 +3183,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -3197,23 +3202,23 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="51">
         <v>13000</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -3225,23 +3230,23 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="51">
         <v>9500</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -3253,23 +3258,23 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="53">
         <v>8000</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3289,17 +3294,17 @@
       <c r="H14" s="22">
         <v>9000</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="50">
         <v>9000</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -3319,17 +3324,17 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="50">
         <v>10000</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -3343,23 +3348,23 @@
       <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>30000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>30000</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="48">
         <v>30000</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3379,17 +3384,17 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="50">
         <v>12500</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3399,14 +3404,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -3418,23 +3423,23 @@
       <c r="F19" s="20">
         <v>24000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>25000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>25000</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="51">
         <v>23000</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>24200</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -3446,23 +3451,23 @@
       <c r="F20" s="21">
         <v>45000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>48000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>48000</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="53">
         <v>55000</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>48200</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -3472,15 +3477,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -3492,24 +3497,24 @@
       <c r="F22" s="19">
         <v>30000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>30000</v>
       </c>
       <c r="H22" s="20">
         <v>20000</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="51">
         <v>30000</v>
       </c>
-      <c r="J22" s="48"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>28000</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -3521,24 +3526,24 @@
       <c r="F23" s="19">
         <v>30000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>30000</v>
       </c>
       <c r="H23" s="20">
         <v>25000</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="51">
         <v>25000</v>
       </c>
-      <c r="J23" s="48"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>28000</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -3550,23 +3555,23 @@
       <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>40000</v>
       </c>
       <c r="H24" s="21">
         <v>40000</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="53">
         <v>40000</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>40000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -3576,14 +3581,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -3595,23 +3600,23 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="57">
         <v>130000</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -3623,23 +3628,23 @@
       <c r="F27" s="21">
         <v>23000</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>23000</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>23000</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="53">
         <v>23500</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>23100</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -3649,14 +3654,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -3668,23 +3673,23 @@
       <c r="F29" s="19">
         <v>20000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>22000</v>
       </c>
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="51">
         <v>22000</v>
       </c>
-      <c r="J29" s="48"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>21200</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -3696,23 +3701,23 @@
       <c r="F30" s="19">
         <v>2500</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2500</v>
       </c>
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="53">
         <v>2500</v>
       </c>
-      <c r="J30" s="59"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2500</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -3732,17 +3737,17 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="48">
         <v>11000</v>
       </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -3762,18 +3767,18 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="50">
         <v>6000</v>
       </c>
-      <c r="J32" s="46"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3785,7 +3790,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3797,7 +3802,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3809,7 +3814,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3821,7 +3826,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3833,7 +3838,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3845,7 +3850,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3857,7 +3862,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3869,7 +3874,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3880,7 +3885,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3892,7 +3897,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3904,7 +3909,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3916,7 +3921,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3928,7 +3933,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3940,7 +3945,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3952,7 +3957,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3964,7 +3969,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3976,14 +3981,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I28:J28"/>
@@ -3991,11 +3996,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -4003,11 +4003,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B8:B9"/>
@@ -4015,6 +4015,11 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4022,26 +4027,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4054,22 +4059,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4082,7 +4087,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -4098,7 +4103,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -4114,7 +4119,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -4130,7 +4135,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4143,49 +4148,49 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -4195,14 +4200,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -4214,21 +4219,21 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -4240,21 +4245,21 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -4266,21 +4271,21 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -4300,15 +4305,15 @@
       <c r="H14" s="22">
         <v>11000</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -4328,15 +4333,15 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -4350,21 +4355,21 @@
       <c r="F16" s="22">
         <v>32000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>39000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>39000</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>35500</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -4384,15 +4389,15 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -4402,14 +4407,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -4421,21 +4426,21 @@
       <c r="F19" s="20">
         <v>35000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>40000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>50000</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>38750</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -4447,21 +4452,21 @@
       <c r="F20" s="21">
         <v>40000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>55000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>60000</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>53750</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -4471,15 +4476,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -4491,22 +4496,22 @@
       <c r="F22" s="19">
         <v>25000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>50000</v>
       </c>
       <c r="H22" s="20">
         <v>50000</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>38750</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -4518,22 +4523,22 @@
       <c r="F23" s="19">
         <v>30000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>45000</v>
       </c>
       <c r="H23" s="20">
         <v>50000</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>37500</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -4545,21 +4550,21 @@
       <c r="F24" s="19">
         <v>37000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>40000</v>
       </c>
       <c r="H24" s="21">
         <v>120000</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>58000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -4569,14 +4574,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -4588,21 +4593,21 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>135000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>140000</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>133750</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -4614,21 +4619,21 @@
       <c r="F27" s="21">
         <v>21500</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>23500</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>23500</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>23000</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -4638,14 +4643,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -4657,21 +4662,21 @@
       <c r="F29" s="19">
         <v>22000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>21000</v>
       </c>
       <c r="H29" s="20">
         <v>23000</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -4683,21 +4688,21 @@
       <c r="F30" s="19">
         <v>2500</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2500</v>
       </c>
       <c r="H30" s="21">
         <v>3000</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2625</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -4717,15 +4722,15 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -4745,16 +4750,16 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4766,7 +4771,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4778,7 +4783,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4790,7 +4795,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4802,7 +4807,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4814,7 +4819,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4826,7 +4831,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4838,7 +4843,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4850,7 +4855,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4861,7 +4866,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4873,7 +4878,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4885,7 +4890,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4897,7 +4902,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4909,7 +4914,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4921,7 +4926,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4933,7 +4938,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4945,7 +4950,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4957,14 +4962,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I28:J28"/>
@@ -4972,11 +4977,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -4984,11 +4984,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B8:B9"/>
@@ -4996,6 +4996,11 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5003,26 +5008,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5035,22 +5040,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5063,7 +5068,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -5079,7 +5084,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -5095,7 +5100,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -5111,7 +5116,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5124,51 +5129,51 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -5178,14 +5183,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -5197,23 +5202,23 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="51">
         <v>13000</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -5225,23 +5230,23 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="51">
         <v>9500</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -5253,23 +5258,23 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="53">
         <v>8000</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5289,17 +5294,17 @@
       <c r="H14" s="22">
         <v>11000</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="50">
         <v>11000</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -5319,17 +5324,17 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="50">
         <v>10000</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -5343,23 +5348,23 @@
       <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>25000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="48">
         <v>25000</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -5379,17 +5384,17 @@
       <c r="H17" s="22">
         <v>12500</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="50">
         <v>12500</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5399,14 +5404,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -5418,23 +5423,23 @@
       <c r="F19" s="20">
         <v>40000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>35000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>25000</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="51">
         <v>25000</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>35000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -5446,23 +5451,23 @@
       <c r="F20" s="21">
         <v>28000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>40000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>27000</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="53">
         <v>27000</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>32400</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -5472,15 +5477,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -5492,24 +5497,24 @@
       <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>40000</v>
       </c>
       <c r="H22" s="20">
         <v>40000</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="51">
         <v>40000</v>
       </c>
-      <c r="J22" s="48"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>40000</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -5521,24 +5526,24 @@
       <c r="F23" s="19">
         <v>30000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>30000</v>
       </c>
       <c r="H23" s="20">
         <v>30000</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="51">
         <v>30000</v>
       </c>
-      <c r="J23" s="48"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>30000</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -5550,23 +5555,23 @@
       <c r="F24" s="19">
         <v>50000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>70000</v>
       </c>
       <c r="H24" s="21">
         <v>70000</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="53">
         <v>70000</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>62000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -5576,14 +5581,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -5595,23 +5600,23 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="57">
         <v>130000</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>131000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -5623,23 +5628,23 @@
       <c r="F27" s="21">
         <v>22000</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>22000</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>22000</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="53">
         <v>22000</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>21900</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -5649,14 +5654,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -5668,23 +5673,23 @@
       <c r="F29" s="19">
         <v>21000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>21000</v>
       </c>
       <c r="H29" s="20">
         <v>20000</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="51">
         <v>20000</v>
       </c>
-      <c r="J29" s="48"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>20600</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -5696,23 +5701,23 @@
       <c r="F30" s="19">
         <v>2500</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2300</v>
       </c>
       <c r="H30" s="21">
         <v>2300</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="53">
         <v>2300</v>
       </c>
-      <c r="J30" s="59"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2380</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -5732,17 +5737,17 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="48">
         <v>11000</v>
       </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -5762,18 +5767,18 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="50">
         <v>6000</v>
       </c>
-      <c r="J32" s="46"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5785,7 +5790,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5797,7 +5802,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5809,7 +5814,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5821,7 +5826,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5833,7 +5838,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5845,7 +5850,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5857,7 +5862,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5869,7 +5874,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5880,7 +5885,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5892,7 +5897,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5904,7 +5909,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5916,7 +5921,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5928,7 +5933,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5940,7 +5945,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5952,7 +5957,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5964,7 +5969,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5976,14 +5981,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I28:J28"/>
@@ -5991,11 +5996,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -6003,11 +6003,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B8:B9"/>
@@ -6015,6 +6015,11 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6022,26 +6027,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6054,22 +6059,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6082,7 +6087,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -6098,7 +6103,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -6114,7 +6119,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -6130,7 +6135,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6143,49 +6148,49 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -6195,14 +6200,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -6214,21 +6219,21 @@
       <c r="F11" s="20">
         <v>13000</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>13000</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -6240,21 +6245,21 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -6266,21 +6271,21 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>9000</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -6300,15 +6305,15 @@
       <c r="H14" s="22">
         <v>12000</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -6328,15 +6333,15 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -6350,21 +6355,21 @@
       <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>29000</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -6384,15 +6389,15 @@
       <c r="H17" s="22">
         <v>12000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12250</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -6402,14 +6407,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -6421,21 +6426,21 @@
       <c r="F19" s="20">
         <v>24000</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>23000</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>23000</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>23750</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -6447,21 +6452,21 @@
       <c r="F20" s="21">
         <v>27000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>25000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>23000</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>25500</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -6471,15 +6476,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -6491,22 +6496,22 @@
       <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>40000</v>
       </c>
       <c r="H22" s="20">
         <v>40000</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>40000</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -6518,22 +6523,22 @@
       <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>40000</v>
       </c>
       <c r="H23" s="20">
         <v>40000</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>38750</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -6545,21 +6550,21 @@
       <c r="F24" s="19">
         <v>60000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>60000</v>
       </c>
       <c r="H24" s="21">
         <v>50000</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>60000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -6569,14 +6574,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -6588,21 +6593,21 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -6614,21 +6619,21 @@
       <c r="F27" s="21">
         <v>22000</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>22000</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>22000</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>22000</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -6638,14 +6643,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -6657,21 +6662,21 @@
       <c r="F29" s="19">
         <v>20000</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>22500</v>
       </c>
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>21625</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -6683,21 +6688,21 @@
       <c r="F30" s="19">
         <v>2300</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>2300</v>
       </c>
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2350</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -6717,15 +6722,15 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -6745,16 +6750,16 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6766,7 +6771,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6778,7 +6783,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6790,7 +6795,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6802,7 +6807,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6814,7 +6819,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6826,7 +6831,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6838,7 +6843,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6850,7 +6855,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6861,7 +6866,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6873,7 +6878,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6885,7 +6890,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6897,7 +6902,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6909,7 +6914,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6921,7 +6926,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6933,7 +6938,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6945,7 +6950,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6957,14 +6962,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="I28:J28"/>
@@ -6972,11 +6977,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -6984,11 +6984,11 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B8:B9"/>
@@ -6996,6 +6996,11 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7003,26 +7008,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7035,22 +7040,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7063,7 +7068,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -7079,7 +7084,7 @@
       <c r="I4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -7095,7 +7100,7 @@
       <c r="I5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -7111,7 +7116,7 @@
       <c r="I6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7124,49 +7129,49 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="41" t="s">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7176,14 +7181,14 @@
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -7195,21 +7200,21 @@
       <c r="F11" s="20">
         <v>12000</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="29">
         <v>11000</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="29">
         <v>11500</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>11875</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -7221,21 +7226,21 @@
       <c r="F12" s="20">
         <v>9500</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="29">
         <v>8000</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="29">
         <v>8000</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -7247,21 +7252,21 @@
       <c r="F13" s="21">
         <v>8000</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="27">
         <v>8000</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -7269,27 +7274,27 @@
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="39">
+      <c r="E14" s="22">
         <v>12000</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="22">
         <v>12000</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="22">
         <v>10000</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="22">
         <v>10000</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="39">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -7300,24 +7305,24 @@
       <c r="E15" s="21">
         <v>10000</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="22">
         <v>10000</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="22">
         <v>10000</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -7328,24 +7333,24 @@
       <c r="E16" s="19">
         <v>29000</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="22">
         <v>29000</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="30">
         <v>25000</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -7353,27 +7358,27 @@
         <v>33</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="39">
+      <c r="E17" s="22">
         <v>12000</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="22">
         <v>12000</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="22">
         <v>12000</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="22">
         <v>12000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="39">
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -7383,14 +7388,14 @@
       <c r="D18" s="7"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -7402,21 +7407,21 @@
       <c r="F19" s="20">
         <v>18000</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="29">
         <v>18000</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="29">
         <v>18000</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>19000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -7428,21 +7433,21 @@
       <c r="F20" s="21">
         <v>20000</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="27">
         <v>20000</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="27">
         <v>20000</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>20500</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -7452,15 +7457,15 @@
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="34"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -7472,22 +7477,22 @@
       <c r="F22" s="19">
         <v>30000</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="29">
         <v>30000</v>
       </c>
       <c r="H22" s="20">
         <v>22000</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>30500</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="8" t="s">
         <v>23</v>
@@ -7499,22 +7504,22 @@
       <c r="F23" s="19">
         <v>30000</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="29">
         <v>30000</v>
       </c>
       <c r="H23" s="20">
         <v>22000</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>30500</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -7526,21 +7531,21 @@
       <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="27">
         <v>40000</v>
       </c>
       <c r="H24" s="21">
         <v>40000</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>45000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -7550,14 +7555,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
         <v>27</v>
@@ -7569,21 +7574,21 @@
       <c r="F26" s="25">
         <v>130000</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="32">
         <v>130000</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -7595,21 +7600,21 @@
       <c r="F27" s="21">
         <v>22000</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="27">
         <v>22000</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="27">
         <v>22500</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>22125</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
@@ -7619,14 +7624,14 @@
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
@@ -7638,21 +7643,21 @@
       <c r="F29" s="19">
         <v>22000</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="29">
         <v>22000</v>
       </c>
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="10" t="s">
         <v>32</v>
@@ -7664,21 +7669,21 @@
       <c r="F30" s="19">
         <v>2300</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="27">
         <v>2200</v>
       </c>
       <c r="H30" s="21">
         <v>2200</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2300</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
@@ -7686,27 +7691,27 @@
         <v>35</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="39">
+      <c r="E31" s="22">
         <v>11000</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="22">
         <v>11000</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="22">
         <v>11000</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="39">
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -7714,28 +7719,28 @@
         <v>37</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="39">
+      <c r="E32" s="22">
         <v>6000</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="22">
         <v>6000</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="22">
         <v>6000</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="39">
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7747,7 +7752,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7759,7 +7764,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -7771,7 +7776,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -7783,7 +7788,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -7795,7 +7800,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -7807,7 +7812,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7819,7 +7824,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -7831,7 +7836,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -7842,7 +7847,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7854,7 +7859,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -7866,7 +7871,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -7878,7 +7883,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7890,7 +7895,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -7902,7 +7907,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7914,7 +7919,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -7926,7 +7931,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -7938,14 +7943,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="B2:K2"/>
@@ -7967,16 +7972,16 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7984,26 +7989,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="15" width="9.7265625" customWidth="1"/>
-    <col min="16" max="16" width="5.7265625" customWidth="1"/>
-    <col min="17" max="17" width="4.7265625" customWidth="1"/>
-    <col min="18" max="18" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8023,29 +8028,29 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="2:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8065,7 +8070,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -8073,7 +8078,7 @@
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="33" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1"/>
@@ -8088,7 +8093,7 @@
       <c r="P4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -8111,7 +8116,7 @@
       <c r="P5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>53</v>
@@ -8134,7 +8139,7 @@
       <c r="P6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>55</v>
@@ -8157,7 +8162,7 @@
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8177,38 +8182,38 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="55" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="43" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
+    <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
@@ -8242,14 +8247,14 @@
       <c r="O10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="P10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="56"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -8257,23 +8262,23 @@
         <v>6</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="39"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -8281,23 +8286,23 @@
         <v>7</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="39"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -8305,23 +8310,23 @@
         <v>8</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="39"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -8329,23 +8334,23 @@
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="39"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="22"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
@@ -8353,23 +8358,23 @@
         <v>12</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="39"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
@@ -8377,23 +8382,23 @@
         <v>14</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="39"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -8401,23 +8406,23 @@
         <v>33</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="39"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -8425,23 +8430,23 @@
         <v>18</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="39"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="22"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -8449,23 +8454,23 @@
         <v>19</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="39"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="22"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>98</v>
       </c>
@@ -8473,24 +8478,24 @@
         <v>22</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="39"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="22"/>
       <c r="S20" s="1"/>
-      <c r="X20" s="27"/>
-    </row>
-    <row r="21" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X20" s="19"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
@@ -8498,24 +8503,24 @@
         <v>23</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="39"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="1"/>
-      <c r="X21" s="27"/>
-    </row>
-    <row r="22" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="X21" s="19"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
@@ -8523,23 +8528,23 @@
         <v>24</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="39"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="22"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
@@ -8547,23 +8552,23 @@
         <v>27</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="39"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="22"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
@@ -8571,23 +8576,23 @@
         <v>28</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="39"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>101</v>
       </c>
@@ -8595,23 +8600,23 @@
         <v>31</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="39"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>102</v>
       </c>
@@ -8619,23 +8624,23 @@
         <v>32</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="39"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="22"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>103</v>
       </c>
@@ -8643,23 +8648,23 @@
         <v>35</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="39"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="22"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>104</v>
       </c>
@@ -8667,24 +8672,24 @@
         <v>37</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="39"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8703,7 +8708,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8722,7 +8727,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8741,7 +8746,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8760,7 +8765,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8779,7 +8784,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8798,7 +8803,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8817,7 +8822,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8836,7 +8841,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -8854,7 +8859,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8873,7 +8878,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8892,7 +8897,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8911,7 +8916,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8930,7 +8935,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8949,7 +8954,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8968,7 +8973,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8987,7 +8992,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -9006,14 +9011,14 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B2:R2"/>

--- a/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR MARTAPURA 2017.xlsx
+++ b/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR MARTAPURA 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Data-Mining\Hands On 3 Studi Kasus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407E613-F0C1-441D-BCE0-144826505AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03865A22-E0F4-4D80-AA90-25B3F7A4AC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3720" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3492" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARET" sheetId="1" r:id="rId1"/>
@@ -679,6 +679,51 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,51 +749,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,18 +1082,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,30 +1171,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
@@ -1207,9 +1207,9 @@
       <c r="H9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1224,8 +1224,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -1247,8 +1247,8 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f>AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -1273,8 +1273,8 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f>AVERAGE(E12:J12)</f>
         <v>9500</v>
@@ -1299,8 +1299,8 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f>AVERAGE(E13:J13)</f>
         <v>8000</v>
@@ -1327,8 +1327,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22"/>
       <c r="L14" s="1"/>
     </row>
@@ -1352,8 +1352,8 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f>AVERAGE(E15:J15)</f>
         <v>10000</v>
@@ -1380,8 +1380,8 @@
       <c r="H16" s="30">
         <v>24000</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f>AVERAGE(E16:J16)</f>
         <v>24750</v>
@@ -1408,8 +1408,8 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f>AVERAGE(E17:J17)</f>
         <v>12625</v>
@@ -1428,8 +1428,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -1451,8 +1451,8 @@
       <c r="H19" s="29">
         <v>38000</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>45500</v>
@@ -1477,8 +1477,8 @@
       <c r="H20" s="27">
         <v>36000</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>35000</v>
@@ -1497,8 +1497,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -1521,8 +1521,8 @@
       <c r="H22" s="20">
         <v>50000</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>49500</v>
@@ -1548,8 +1548,8 @@
       <c r="H23" s="20">
         <v>60000</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>58750</v>
@@ -1575,8 +1575,8 @@
       <c r="H24" s="23">
         <v>120000</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="23">
         <f>AVERAGE(E24:J24)</f>
         <v>115000</v>
@@ -1595,8 +1595,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -1618,8 +1618,8 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>127500</v>
@@ -1644,8 +1644,8 @@
       <c r="H27" s="27">
         <v>28000</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>28000</v>
@@ -1664,8 +1664,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -1687,8 +1687,8 @@
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
@@ -1713,8 +1713,8 @@
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2425</v>
@@ -1741,8 +1741,8 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -1769,8 +1769,8 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -1991,20 +1991,11 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:J8"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -2015,11 +2006,20 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,18 +2060,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,18 +2152,18 @@
       <c r="B8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="61" t="s">
         <v>3</v>
       </c>
@@ -2185,8 +2185,8 @@
       <c r="H9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="62"/>
       <c r="L9" s="1"/>
     </row>
@@ -2202,8 +2202,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -2225,8 +2225,8 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -2251,8 +2251,8 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -2277,8 +2277,8 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2305,8 +2305,8 @@
       <c r="H14" s="22">
         <v>9000</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>9666.6666666666661</v>
@@ -2333,8 +2333,8 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -2361,8 +2361,8 @@
       <c r="H16" s="30">
         <v>28000</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26250</v>
@@ -2389,8 +2389,8 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2409,8 +2409,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -2432,8 +2432,8 @@
       <c r="H19" s="29">
         <v>35000</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>30750</v>
@@ -2458,8 +2458,8 @@
       <c r="H20" s="27">
         <v>40000</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>37000</v>
@@ -2478,8 +2478,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -2502,8 +2502,8 @@
       <c r="H22" s="20">
         <v>32000</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>36750</v>
@@ -2529,8 +2529,8 @@
       <c r="H23" s="20">
         <v>32000</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>39250</v>
@@ -2556,8 +2556,8 @@
       <c r="H24" s="21">
         <v>48000</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>67000</v>
@@ -2576,8 +2576,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -2599,8 +2599,8 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
@@ -2625,8 +2625,8 @@
       <c r="H27" s="27">
         <v>21000</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>26500</v>
@@ -2645,8 +2645,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -2668,8 +2668,8 @@
       <c r="H29" s="20">
         <v>20000</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>19750</v>
@@ -2694,8 +2694,8 @@
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2500</v>
@@ -2722,8 +2722,8 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -2750,8 +2750,8 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -2972,11 +2972,18 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -2989,18 +2996,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3011,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3041,18 +3041,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3130,30 +3130,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>76</v>
       </c>
@@ -3169,8 +3169,8 @@
       <c r="I9" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3185,8 +3185,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -3208,10 +3208,10 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="44">
         <v>13000</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -3236,10 +3236,10 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="44">
         <v>9500</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -3264,10 +3264,10 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="42">
         <v>8000</v>
       </c>
-      <c r="J13" s="54"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -3294,10 +3294,10 @@
       <c r="H14" s="22">
         <v>9000</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="41">
         <v>9000</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>9000</v>
@@ -3324,10 +3324,10 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="41">
         <v>10000</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -3354,10 +3354,10 @@
       <c r="H16" s="30">
         <v>30000</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <v>30000</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>28000</v>
@@ -3384,10 +3384,10 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="41">
         <v>12500</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12600</v>
@@ -3406,8 +3406,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -3429,10 +3429,10 @@
       <c r="H19" s="29">
         <v>25000</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="44">
         <v>23000</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>24200</v>
@@ -3457,10 +3457,10 @@
       <c r="H20" s="27">
         <v>48000</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="42">
         <v>55000</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>48200</v>
@@ -3479,8 +3479,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -3503,10 +3503,10 @@
       <c r="H22" s="20">
         <v>20000</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="44">
         <v>30000</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>28000</v>
@@ -3532,10 +3532,10 @@
       <c r="H23" s="20">
         <v>25000</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="44">
         <v>25000</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>28000</v>
@@ -3561,10 +3561,10 @@
       <c r="H24" s="21">
         <v>40000</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="42">
         <v>40000</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>40000</v>
@@ -3583,8 +3583,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -3606,10 +3606,10 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="48">
         <v>130000</v>
       </c>
-      <c r="J26" s="58"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
@@ -3634,10 +3634,10 @@
       <c r="H27" s="27">
         <v>23000</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="42">
         <v>23500</v>
       </c>
-      <c r="J27" s="54"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>23100</v>
@@ -3656,8 +3656,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -3679,10 +3679,10 @@
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="44">
         <v>22000</v>
       </c>
-      <c r="J29" s="52"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>21200</v>
@@ -3707,10 +3707,10 @@
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="42">
         <v>2500</v>
       </c>
-      <c r="J30" s="54"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2500</v>
@@ -3737,10 +3737,10 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <v>11000</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -3767,10 +3767,10 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="41">
         <v>6000</v>
       </c>
-      <c r="J32" s="50"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -3991,11 +3991,18 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -4008,18 +4015,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4030,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4060,18 +4060,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4149,30 +4149,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>81</v>
       </c>
@@ -4185,9 +4185,9 @@
       <c r="H9" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4202,8 +4202,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -4225,8 +4225,8 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -4251,8 +4251,8 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -4277,8 +4277,8 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -4305,8 +4305,8 @@
       <c r="H14" s="22">
         <v>11000</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>10500</v>
@@ -4333,8 +4333,8 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -4361,8 +4361,8 @@
       <c r="H16" s="30">
         <v>39000</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>35500</v>
@@ -4389,8 +4389,8 @@
       <c r="H17" s="22">
         <v>13000</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12750</v>
@@ -4409,8 +4409,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -4432,8 +4432,8 @@
       <c r="H19" s="29">
         <v>50000</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>38750</v>
@@ -4458,8 +4458,8 @@
       <c r="H20" s="27">
         <v>60000</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>53750</v>
@@ -4478,8 +4478,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -4502,8 +4502,8 @@
       <c r="H22" s="20">
         <v>50000</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>38750</v>
@@ -4529,8 +4529,8 @@
       <c r="H23" s="20">
         <v>50000</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>37500</v>
@@ -4556,8 +4556,8 @@
       <c r="H24" s="21">
         <v>120000</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>58000</v>
@@ -4576,8 +4576,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -4599,8 +4599,8 @@
       <c r="H26" s="32">
         <v>140000</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>133750</v>
@@ -4625,8 +4625,8 @@
       <c r="H27" s="27">
         <v>23500</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>23000</v>
@@ -4645,8 +4645,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -4668,8 +4668,8 @@
       <c r="H29" s="20">
         <v>23000</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
@@ -4694,8 +4694,8 @@
       <c r="H30" s="21">
         <v>3000</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2625</v>
@@ -4722,8 +4722,8 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -4750,8 +4750,8 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -4972,11 +4972,18 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -4989,18 +4996,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5011,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5041,18 +5041,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5130,30 +5130,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>85</v>
       </c>
@@ -5169,8 +5169,8 @@
       <c r="I9" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -5185,8 +5185,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -5208,10 +5208,10 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="44">
         <v>13000</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -5236,10 +5236,10 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="44">
         <v>9500</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -5264,10 +5264,10 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="42">
         <v>8000</v>
       </c>
-      <c r="J13" s="54"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -5294,10 +5294,10 @@
       <c r="H14" s="22">
         <v>11000</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="41">
         <v>11000</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>11000</v>
@@ -5324,10 +5324,10 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="41">
         <v>10000</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -5354,10 +5354,10 @@
       <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <v>25000</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26400</v>
@@ -5384,10 +5384,10 @@
       <c r="H17" s="22">
         <v>12500</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="41">
         <v>12500</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12600</v>
@@ -5406,8 +5406,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -5429,10 +5429,10 @@
       <c r="H19" s="29">
         <v>25000</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="44">
         <v>25000</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>35000</v>
@@ -5457,10 +5457,10 @@
       <c r="H20" s="27">
         <v>27000</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="42">
         <v>27000</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>32400</v>
@@ -5479,8 +5479,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -5503,10 +5503,10 @@
       <c r="H22" s="20">
         <v>40000</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="44">
         <v>40000</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>40000</v>
@@ -5532,10 +5532,10 @@
       <c r="H23" s="20">
         <v>30000</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="44">
         <v>30000</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>30000</v>
@@ -5561,10 +5561,10 @@
       <c r="H24" s="21">
         <v>70000</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="42">
         <v>70000</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>62000</v>
@@ -5583,8 +5583,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -5606,10 +5606,10 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="48">
         <v>130000</v>
       </c>
-      <c r="J26" s="58"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>131000</v>
@@ -5634,10 +5634,10 @@
       <c r="H27" s="27">
         <v>22000</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="42">
         <v>22000</v>
       </c>
-      <c r="J27" s="54"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>21900</v>
@@ -5656,8 +5656,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -5679,10 +5679,10 @@
       <c r="H29" s="20">
         <v>20000</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="44">
         <v>20000</v>
       </c>
-      <c r="J29" s="52"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>20600</v>
@@ -5707,10 +5707,10 @@
       <c r="H30" s="21">
         <v>2300</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="42">
         <v>2300</v>
       </c>
-      <c r="J30" s="54"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2380</v>
@@ -5737,10 +5737,10 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <v>11000</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -5767,10 +5767,10 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="41">
         <v>6000</v>
       </c>
-      <c r="J32" s="50"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -5991,11 +5991,18 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -6008,18 +6015,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6030,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -6060,18 +6060,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6149,30 +6149,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>90</v>
       </c>
@@ -6185,9 +6185,9 @@
       <c r="H9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6202,8 +6202,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -6225,8 +6225,8 @@
       <c r="H11" s="29">
         <v>13000</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>13000</v>
@@ -6251,8 +6251,8 @@
       <c r="H12" s="29">
         <v>9500</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -6277,8 +6277,8 @@
       <c r="H13" s="27">
         <v>9000</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8250</v>
@@ -6305,8 +6305,8 @@
       <c r="H14" s="22">
         <v>12000</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -6333,8 +6333,8 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -6361,8 +6361,8 @@
       <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>26000</v>
@@ -6389,8 +6389,8 @@
       <c r="H17" s="22">
         <v>12000</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12250</v>
@@ -6409,8 +6409,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -6432,8 +6432,8 @@
       <c r="H19" s="29">
         <v>23000</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>23750</v>
@@ -6458,8 +6458,8 @@
       <c r="H20" s="27">
         <v>23000</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>25500</v>
@@ -6478,8 +6478,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -6502,8 +6502,8 @@
       <c r="H22" s="20">
         <v>40000</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>40000</v>
@@ -6529,8 +6529,8 @@
       <c r="H23" s="20">
         <v>40000</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>38750</v>
@@ -6556,8 +6556,8 @@
       <c r="H24" s="21">
         <v>50000</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>60000</v>
@@ -6576,8 +6576,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -6599,8 +6599,8 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
@@ -6625,8 +6625,8 @@
       <c r="H27" s="27">
         <v>22000</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>22000</v>
@@ -6645,8 +6645,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -6668,8 +6668,8 @@
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>21625</v>
@@ -6694,8 +6694,8 @@
       <c r="H30" s="21">
         <v>2500</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2350</v>
@@ -6722,8 +6722,8 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -6750,8 +6750,8 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -6972,11 +6972,18 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -6989,18 +6996,11 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7011,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7041,18 +7041,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -7130,30 +7130,30 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="43" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="34" t="s">
         <v>94</v>
       </c>
@@ -7166,9 +7166,9 @@
       <c r="H9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7183,8 +7183,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1"/>
     </row>
@@ -7206,8 +7206,8 @@
       <c r="H11" s="29">
         <v>11500</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="20">
         <f t="shared" ref="K11:K17" si="0">AVERAGE(E11:J11)</f>
         <v>11875</v>
@@ -7232,8 +7232,8 @@
       <c r="H12" s="29">
         <v>8000</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8750</v>
@@ -7258,8 +7258,8 @@
       <c r="H13" s="27">
         <v>8000</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>8250</v>
@@ -7286,8 +7286,8 @@
       <c r="H14" s="22">
         <v>10000</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>11000</v>
@@ -7314,8 +7314,8 @@
       <c r="H15" s="22">
         <v>10000</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7342,8 +7342,8 @@
       <c r="H16" s="30">
         <v>25000</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>27000</v>
@@ -7370,8 +7370,8 @@
       <c r="H17" s="22">
         <v>12000</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -7390,8 +7390,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="20"/>
       <c r="L18" s="1"/>
     </row>
@@ -7413,8 +7413,8 @@
       <c r="H19" s="29">
         <v>18000</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="20">
         <f>AVERAGE(E19:J19)</f>
         <v>19000</v>
@@ -7439,8 +7439,8 @@
       <c r="H20" s="27">
         <v>20000</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="21">
         <f>AVERAGE(E20:J20)</f>
         <v>20500</v>
@@ -7459,8 +7459,8 @@
       <c r="F21" s="19"/>
       <c r="G21" s="28"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="19"/>
@@ -7483,8 +7483,8 @@
       <c r="H22" s="20">
         <v>22000</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>30500</v>
@@ -7510,8 +7510,8 @@
       <c r="H23" s="20">
         <v>22000</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="20">
         <f>AVERAGE(E23:J23)</f>
         <v>30500</v>
@@ -7537,8 +7537,8 @@
       <c r="H24" s="21">
         <v>40000</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="21">
         <f>AVERAGE(E24:J24)</f>
         <v>45000</v>
@@ -7557,8 +7557,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="20"/>
       <c r="L25" s="1"/>
     </row>
@@ -7580,8 +7580,8 @@
       <c r="H26" s="32">
         <v>130000</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="25">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
@@ -7606,8 +7606,8 @@
       <c r="H27" s="27">
         <v>22500</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="21">
         <f>AVERAGE(E27:J27)</f>
         <v>22125</v>
@@ -7626,8 +7626,8 @@
       <c r="F28" s="19"/>
       <c r="G28" s="28"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="20"/>
       <c r="L28" s="1"/>
     </row>
@@ -7649,8 +7649,8 @@
       <c r="H29" s="20">
         <v>22000</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="20">
         <f>AVERAGE(E29:J29)</f>
         <v>22000</v>
@@ -7675,8 +7675,8 @@
       <c r="H30" s="21">
         <v>2200</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="21">
         <f>AVERAGE(E30:J30)</f>
         <v>2300</v>
@@ -7703,8 +7703,8 @@
       <c r="H31" s="22">
         <v>11000</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>11000</v>
@@ -7731,8 +7731,8 @@
       <c r="H32" s="22">
         <v>6000</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="22">
         <f>AVERAGE(E32:J32)</f>
         <v>6000</v>
@@ -7953,17 +7953,11 @@
     <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I16:J16"/>
@@ -7977,11 +7971,17 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7992,7 +7992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -8029,25 +8029,25 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -8183,37 +8183,37 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="43" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="58" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
@@ -8247,11 +8247,11 @@
       <c r="O10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="54" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="63"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
@@ -8273,8 +8273,8 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
       <c r="R11" s="22"/>
       <c r="S11" s="1"/>
     </row>
@@ -8297,8 +8297,8 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
       <c r="R12" s="22"/>
       <c r="S12" s="1"/>
     </row>
@@ -8321,8 +8321,8 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
       <c r="R13" s="22"/>
       <c r="S13" s="1"/>
     </row>
@@ -8345,8 +8345,8 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
       <c r="R14" s="22"/>
       <c r="S14" s="1"/>
     </row>
@@ -8369,8 +8369,8 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
       <c r="R15" s="22"/>
       <c r="S15" s="1"/>
     </row>
@@ -8393,8 +8393,8 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
       <c r="R16" s="22"/>
       <c r="S16" s="1"/>
     </row>
@@ -8417,8 +8417,8 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
       <c r="R17" s="22"/>
       <c r="S17" s="1"/>
     </row>
@@ -8441,8 +8441,8 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
       <c r="R18" s="22"/>
       <c r="S18" s="1"/>
     </row>
@@ -8465,8 +8465,8 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
       <c r="R19" s="22"/>
       <c r="S19" s="1"/>
     </row>
@@ -8489,8 +8489,8 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
       <c r="R20" s="22"/>
       <c r="S20" s="1"/>
       <c r="X20" s="19"/>
@@ -8514,8 +8514,8 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="22"/>
       <c r="S21" s="1"/>
       <c r="X21" s="19"/>
@@ -8587,8 +8587,8 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
       <c r="R24" s="22"/>
       <c r="S24" s="1"/>
     </row>
@@ -8611,8 +8611,8 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="22"/>
       <c r="S25" s="1"/>
     </row>
@@ -8635,8 +8635,8 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="22"/>
       <c r="S26" s="1"/>
     </row>
@@ -8659,8 +8659,8 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
       <c r="R27" s="22"/>
       <c r="S27" s="1"/>
     </row>
@@ -8683,8 +8683,8 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
       <c r="R28" s="22"/>
       <c r="S28" s="1"/>
     </row>
@@ -9021,12 +9021,15 @@
     <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P18:Q18"/>
@@ -9036,15 +9039,12 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
